--- a/3.results/model_selection/goeland_leucophee_HR_1_test_log_quad.xlsx
+++ b/3.results/model_selection/goeland_leucophee_HR_1_test_log_quad.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t xml:space="preserve">model</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t xml:space="preserve">CV_tot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">beta_I(mean_winter_SST)</t>
@@ -640,56 +643,121 @@
         <v>20</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1.063</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>1592</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>1698</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>606</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>4129</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>1594</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>1705</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="T2" s="1" t="n">
+        <v>610</v>
+      </c>
+      <c r="U2" s="1" t="n">
+        <v>4143</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D2">
+  <conditionalFormatting sqref="D2:D2">
     <cfRule type="cellIs" dxfId="0" priority="28" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E2">
+  <conditionalFormatting sqref="E2:E2">
     <cfRule type="cellIs" dxfId="0" priority="27" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F2">
+  <conditionalFormatting sqref="F2:F2">
     <cfRule type="cellIs" dxfId="0" priority="26" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G2">
+  <conditionalFormatting sqref="G2:G2">
     <cfRule type="cellIs" dxfId="0" priority="25" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H2">
+  <conditionalFormatting sqref="H2:H2">
     <cfRule type="cellIs" dxfId="0" priority="24" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I2">
+  <conditionalFormatting sqref="I2:I2">
     <cfRule type="cellIs" dxfId="0" priority="23" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J2">
+  <conditionalFormatting sqref="J2:J2">
     <cfRule type="cellIs" dxfId="0" priority="22" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K2">
+  <conditionalFormatting sqref="K2:K2">
     <cfRule type="cellIs" dxfId="0" priority="21" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L2">
+  <conditionalFormatting sqref="L2:L2">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -699,10 +767,10 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="19">
-      <formula>L1&lt;Inf</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M2">
+      <formula>L2&lt;1597</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M2">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -712,10 +780,10 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="17">
-      <formula>M1&lt;Inf</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N2">
+      <formula>M2&lt;1703</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N2">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -725,10 +793,10 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="15">
-      <formula>N1&lt;Inf</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O2">
+      <formula>N2&lt;238</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O2">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -738,10 +806,10 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="13">
-      <formula>O1&lt;Inf</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P2">
+      <formula>O2&lt;611</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P2">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -751,10 +819,10 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="11">
-      <formula>P1&lt;Inf</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q2">
+      <formula>P2&lt;4134</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q2">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -764,10 +832,10 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="9">
-      <formula>Q1&lt;Inf</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R2">
+      <formula>Q2&lt;1599</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:R2">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -777,10 +845,10 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="7">
-      <formula>R1&lt;Inf</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S2">
+      <formula>R2&lt;1710</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:S2">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -790,10 +858,10 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="5">
-      <formula>S1&lt;Inf</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T2">
+      <formula>S2&lt;239</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T2:T2">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -803,10 +871,10 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>T1&lt;Inf</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U2">
+      <formula>T2&lt;615</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U2:U2">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -816,7 +884,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>U1&lt;Inf</formula>
+      <formula>U2&lt;4148</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -897,63 +965,63 @@
         <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.682</v>
+        <v>1.01</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>35.8</v>
+        <v>901.5</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>0.45</v>
+        <v>0.51</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>220</v>
@@ -962,64 +1030,64 @@
         <v>583</v>
       </c>
       <c r="P2" s="1" t="n">
-        <v>3961</v>
+        <v>3960</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="R2" s="1" t="n">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="T2" s="1" t="n">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="U2" s="1" t="n">
-        <v>3935</v>
+        <v>3930</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1" t="n">
-        <v>-1.47698398931155</v>
+        <v>-1.39780644282475</v>
       </c>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1" t="n">
-        <v>0.172434709283786</v>
+        <v>0.156176872185774</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1.118</v>
+        <v>1.007</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>35.3</v>
+        <v>809.4</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="E3" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I3" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="F3" s="1" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>0.53</v>
-      </c>
       <c r="J3" s="1" t="n">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="K3" s="1" t="n">
         <v>0.5</v>
@@ -1028,119 +1096,119 @@
         <v>1553</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>220</v>
       </c>
       <c r="O3" s="1" t="n">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="P3" s="1" t="n">
         <v>3960</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="R3" s="1" t="n">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="T3" s="1" t="n">
         <v>567</v>
       </c>
       <c r="U3" s="1" t="n">
-        <v>3931</v>
+        <v>3927</v>
       </c>
       <c r="V3" s="1" t="n">
-        <v>-0.759937151489016</v>
+        <v>-0.71275095109589</v>
       </c>
       <c r="W3" s="1"/>
       <c r="X3" s="1" t="n">
-        <v>-0.642806079973382</v>
+        <v>-0.700650202042084</v>
       </c>
       <c r="Y3" s="1" t="n">
-        <v>1.2489027850423</v>
+        <v>1.17625202266658</v>
       </c>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1" t="n">
-        <v>1.25698111314229</v>
+        <v>1.17297340232954</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>1.129</v>
+        <v>1.023</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>33</v>
+        <v>877</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="E4" s="1" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I4" s="1" t="n">
         <v>0.49</v>
       </c>
-      <c r="F4" s="1" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>0.51</v>
-      </c>
       <c r="J4" s="1" t="n">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="L4" s="1" t="n">
         <v>1552</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>220</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>3959</v>
+        <v>3957</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="R4" s="1" t="n">
         <v>1607</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>3930</v>
+        <v>3922</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1" t="n">
-        <v>-1.53108489913292</v>
+        <v>-1.462330025436</v>
       </c>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1" t="n">
-        <v>0.175755501966439</v>
+        <v>0.167305107685374</v>
       </c>
       <c r="AA4" s="1"/>
     </row>
@@ -1216,7 +1284,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="17">
-      <formula>M2&lt;1610</formula>
+      <formula>M2&lt;1607</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N4">
@@ -1242,7 +1310,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="13">
-      <formula>O2&lt;587</formula>
+      <formula>O2&lt;588</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P4">
@@ -1255,7 +1323,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="11">
-      <formula>P2&lt;3964</formula>
+      <formula>P2&lt;3962</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q4">
@@ -1268,7 +1336,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="9">
-      <formula>Q2&lt;1534</formula>
+      <formula>Q2&lt;1533</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R4">
@@ -1294,7 +1362,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="5">
-      <formula>S2&lt;226</formula>
+      <formula>S2&lt;225</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T4">
@@ -1320,7 +1388,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>U2&lt;3935</formula>
+      <formula>U2&lt;3927</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1401,153 +1469,153 @@
         <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.306</v>
+        <v>1.025</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>56.3</v>
+        <v>797.9</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>0.56</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>0.52</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>234</v>
       </c>
       <c r="O2" s="1" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="P2" s="1" t="n">
-        <v>4068</v>
+        <v>4069</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="R2" s="1" t="n">
-        <v>1648</v>
+        <v>1645</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="T2" s="1" t="n">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="U2" s="1" t="n">
-        <v>4088</v>
+        <v>4084</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1" t="n">
-        <v>-1.16236953605984</v>
+        <v>-1.1809721017955</v>
       </c>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1" t="n">
-        <v>0.148376633761121</v>
+        <v>0.144118730424175</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1.174</v>
+        <v>1.007</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>41.5</v>
+        <v>731.1</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>0.54</v>
       </c>
       <c r="E3" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G3" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="F3" s="1" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>0.48</v>
-      </c>
       <c r="H3" s="1" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>0.47</v>
+        <v>0.49</v>
       </c>
       <c r="L3" s="1" t="n">
         <v>1593</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="N3" s="1" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O3" s="1" t="n">
         <v>606</v>
       </c>
       <c r="P3" s="1" t="n">
-        <v>4070</v>
+        <v>4068</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="R3" s="1" t="n">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="S3" s="1" t="n">
         <v>234</v>
@@ -1556,62 +1624,62 @@
         <v>616</v>
       </c>
       <c r="U3" s="1" t="n">
-        <v>4086</v>
+        <v>4081</v>
       </c>
       <c r="V3" s="1" t="n">
-        <v>-0.612095177563662</v>
+        <v>-0.56095184246707</v>
       </c>
       <c r="W3" s="1"/>
       <c r="X3" s="1" t="n">
-        <v>-0.541869485799232</v>
+        <v>-0.621522985370475</v>
       </c>
       <c r="Y3" s="1" t="n">
-        <v>1.18177638435897</v>
+        <v>1.13720980950755</v>
       </c>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1" t="n">
-        <v>1.1714155433307</v>
+        <v>1.13805523570211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>1.395</v>
+        <v>1.056</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>41.2</v>
+        <v>814.6</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.44</v>
+        <v>0.55</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
       <c r="G4" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I4" s="1" t="n">
         <v>0.49</v>
       </c>
-      <c r="H4" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>0.52</v>
-      </c>
       <c r="J4" s="1" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="L4" s="1" t="n">
         <v>1593</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>234</v>
@@ -1620,31 +1688,31 @@
         <v>606</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>4069</v>
+        <v>4068</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="R4" s="1" t="n">
         <v>1643</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>4079</v>
+        <v>4082</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1" t="n">
-        <v>-1.20042866044339</v>
+        <v>-1.19058690537002</v>
       </c>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1" t="n">
-        <v>0.139650193329813</v>
+        <v>0.143411160840792</v>
       </c>
       <c r="AA4" s="1"/>
     </row>
@@ -1746,7 +1814,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="13">
-      <formula>O2&lt;610</formula>
+      <formula>O2&lt;611</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P4">
@@ -1798,7 +1866,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="5">
-      <formula>S2&lt;238</formula>
+      <formula>S2&lt;239</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T4">
@@ -1811,7 +1879,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>T2&lt;620</formula>
+      <formula>T2&lt;621</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U4">
@@ -1824,7 +1892,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>U2&lt;4084</formula>
+      <formula>U2&lt;4086</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1905,33 +1973,33 @@
         <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.237</v>
+        <v>1.009</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>23.5</v>
+        <v>292.1</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>0.6</v>
@@ -1940,155 +2008,155 @@
         <v>0.52</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>0.59</v>
+        <v>0.57</v>
       </c>
       <c r="K2" s="1" t="n">
         <v>0.49</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>1546</v>
+        <v>1549</v>
       </c>
       <c r="N2" s="1" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O2" s="1" t="n">
         <v>603</v>
       </c>
       <c r="P2" s="1" t="n">
-        <v>3939</v>
+        <v>3940</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="R2" s="1" t="n">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="T2" s="1" t="n">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="U2" s="1" t="n">
-        <v>3909</v>
+        <v>3906</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1" t="n">
-        <v>3.00633146869708</v>
+        <v>3.32759081102088</v>
       </c>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1" t="n">
-        <v>0.329410408619854</v>
+        <v>0.431872359425151</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1.351</v>
+        <v>1.14</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>26.9</v>
+        <v>333.1</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>0.57</v>
+        <v>0.49</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>0.45</v>
+        <v>0.49</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>0.57</v>
+        <v>0.56</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="M3" s="1" t="n">
         <v>1548</v>
       </c>
       <c r="N3" s="1" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O3" s="1" t="n">
         <v>603</v>
       </c>
       <c r="P3" s="1" t="n">
-        <v>3941</v>
+        <v>3939</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="R3" s="1" t="n">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="T3" s="1" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="U3" s="1" t="n">
-        <v>3908</v>
+        <v>3905</v>
       </c>
       <c r="V3" s="1" t="n">
-        <v>1.56468011647154</v>
+        <v>1.67469731230249</v>
       </c>
       <c r="W3" s="1"/>
       <c r="X3" s="1" t="n">
-        <v>1.47528502868021</v>
+        <v>1.72787673705074</v>
       </c>
       <c r="Y3" s="1" t="n">
-        <v>1.21392946987779</v>
+        <v>1.1641031574754</v>
       </c>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1" t="n">
-        <v>1.27827489350348</v>
+        <v>1.16593280079349</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>1.432</v>
+        <v>1.007</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>31.6</v>
+        <v>509.4</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>0.51</v>
@@ -2097,58 +2165,58 @@
         <v>0.42</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>0.52</v>
+        <v>0.56</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="L4" s="1" t="n">
         <v>1560</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>228</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>3944</v>
+        <v>3945</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>1559</v>
+        <v>1554</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>3916</v>
+        <v>3908</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1" t="n">
-        <v>2.06372291778877</v>
+        <v>2.11718268478688</v>
       </c>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1" t="n">
-        <v>0.254239596451246</v>
+        <v>0.256926577678465</v>
       </c>
       <c r="AA4" s="1"/>
     </row>
@@ -2211,7 +2279,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="19">
-      <formula>L2&lt;1565</formula>
+      <formula>L2&lt;1564</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M4">
@@ -2224,7 +2292,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="17">
-      <formula>M2&lt;1551</formula>
+      <formula>M2&lt;1553</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N4">
@@ -2250,7 +2318,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="13">
-      <formula>O2&lt;608</formula>
+      <formula>O2&lt;607</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P4">
@@ -2276,7 +2344,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="9">
-      <formula>Q2&lt;1547</formula>
+      <formula>Q2&lt;1546</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R4">
@@ -2289,7 +2357,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="7">
-      <formula>R2&lt;1551</formula>
+      <formula>R2&lt;1553</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S4">
@@ -2302,7 +2370,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="5">
-      <formula>S2&lt;231</formula>
+      <formula>S2&lt;230</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T4">
@@ -2315,7 +2383,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>T2&lt;590</formula>
+      <formula>T2&lt;593</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U4">
@@ -2328,7 +2396,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>U2&lt;3913</formula>
+      <formula>U2&lt;3910</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2409,51 +2477,51 @@
         <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.778</v>
+        <v>1.013</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>27.5</v>
+        <v>723.8</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.51</v>
+        <v>0.55</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>0.36</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>0.45</v>
+        <v>0.49</v>
       </c>
       <c r="J2" s="1" t="n">
         <v>0.49</v>
@@ -2465,7 +2533,7 @@
         <v>1582</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>227</v>
@@ -2474,146 +2542,146 @@
         <v>588</v>
       </c>
       <c r="P2" s="1" t="n">
-        <v>4043</v>
+        <v>4042</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="R2" s="1" t="n">
-        <v>1657</v>
+        <v>1652</v>
       </c>
       <c r="S2" s="1" t="n">
         <v>228</v>
       </c>
       <c r="T2" s="1" t="n">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="U2" s="1" t="n">
-        <v>4042</v>
+        <v>4037</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1" t="n">
-        <v>1.26838214672484</v>
+        <v>1.23836570039845</v>
       </c>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1" t="n">
-        <v>0.175131448219015</v>
+        <v>0.131569763329553</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1.092</v>
+        <v>1.02</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>34.4</v>
+        <v>739.9</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.46</v>
+        <v>0.49</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>0.35</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="I3" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="J3" s="1" t="n">
         <v>0.49</v>
       </c>
-      <c r="J3" s="1" t="n">
-        <v>0.42</v>
-      </c>
       <c r="K3" s="1" t="n">
-        <v>0.55</v>
+        <v>0.51</v>
       </c>
       <c r="L3" s="1" t="n">
         <v>1582</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="N3" s="1" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O3" s="1" t="n">
         <v>588</v>
       </c>
       <c r="P3" s="1" t="n">
-        <v>4043</v>
+        <v>4042</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="R3" s="1" t="n">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="S3" s="1" t="n">
         <v>227</v>
       </c>
       <c r="T3" s="1" t="n">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="U3" s="1" t="n">
-        <v>4047</v>
+        <v>4037</v>
       </c>
       <c r="V3" s="1" t="n">
-        <v>0.70268288758312</v>
+        <v>0.618713641025467</v>
       </c>
       <c r="W3" s="1"/>
       <c r="X3" s="1" t="n">
-        <v>0.563656835868768</v>
+        <v>0.625576456283436</v>
       </c>
       <c r="Y3" s="1" t="n">
-        <v>1.26223497781821</v>
+        <v>1.18189764350942</v>
       </c>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1" t="n">
-        <v>1.27591031087284</v>
+        <v>1.18354123972198</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>1.119</v>
+        <v>1.006</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>43</v>
+        <v>784.9</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>0.41</v>
+        <v>0.36</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="J4" s="1" t="n">
         <v>0.49</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="L4" s="1" t="n">
         <v>1582</v>
@@ -2622,37 +2690,37 @@
         <v>1645</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O4" s="1" t="n">
         <v>588</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>4041</v>
+        <v>4042</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>4040</v>
+        <v>4037</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1" t="n">
-        <v>1.24872640205412</v>
+        <v>1.24782933387112</v>
       </c>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1" t="n">
-        <v>0.15026168555044</v>
+        <v>0.13259557443524</v>
       </c>
       <c r="AA4" s="1"/>
     </row>
@@ -2741,7 +2809,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="15">
-      <formula>N2&lt;231</formula>
+      <formula>N2&lt;232</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O4">
@@ -2767,7 +2835,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="11">
-      <formula>P2&lt;4046</formula>
+      <formula>P2&lt;4047</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q4">
@@ -2780,7 +2848,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="9">
-      <formula>Q2&lt;1584</formula>
+      <formula>Q2&lt;1583</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R4">
@@ -2793,7 +2861,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="7">
-      <formula>R2&lt;1660</formula>
+      <formula>R2&lt;1657</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S4">
@@ -2806,7 +2874,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="5">
-      <formula>S2&lt;230</formula>
+      <formula>S2&lt;232</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T4">
@@ -2819,7 +2887,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>T2&lt;583</formula>
+      <formula>T2&lt;584</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U4">
@@ -2832,7 +2900,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>U2&lt;4045</formula>
+      <formula>U2&lt;4042</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2913,63 +2981,63 @@
         <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.126</v>
+        <v>1.023</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>69.8</v>
+        <v>1050.4</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.56</v>
+        <v>0.6</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.48</v>
+        <v>0.51</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>0.28</v>
+        <v>0.34</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>231</v>
@@ -2978,13 +3046,13 @@
         <v>603</v>
       </c>
       <c r="P2" s="1" t="n">
-        <v>4057</v>
+        <v>4055</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>1576</v>
-      </c>
-      <c r="R2" s="1" t="e">
-        <v>#NUM!</v>
+        <v>1571</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>1652</v>
       </c>
       <c r="S2" s="1" t="n">
         <v>234</v>
@@ -2992,59 +3060,59 @@
       <c r="T2" s="1" t="n">
         <v>607</v>
       </c>
-      <c r="U2" s="1" t="e">
-        <v>#NUM!</v>
+      <c r="U2" s="1" t="n">
+        <v>4064</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1" t="n">
-        <v>-1.13534305676775</v>
+        <v>-1.12642484635401</v>
       </c>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1" t="n">
-        <v>0.129237863686984</v>
+        <v>0.128696163024344</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1.059</v>
+        <v>1.006</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>44</v>
+        <v>846.2</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.47</v>
+        <v>0.51</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>0.45</v>
+        <v>0.51</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>0.54</v>
+        <v>0.49</v>
       </c>
       <c r="J3" s="1" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="K3" s="1" t="n">
         <v>0.51</v>
       </c>
-      <c r="K3" s="1" t="n">
-        <v>0.53</v>
-      </c>
       <c r="L3" s="1" t="n">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>231</v>
@@ -3056,74 +3124,74 @@
         <v>4057</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>1572</v>
-      </c>
-      <c r="R3" s="1" t="e">
-        <v>#NUM!</v>
+        <v>1571</v>
+      </c>
+      <c r="R3" s="1" t="n">
+        <v>1653</v>
       </c>
       <c r="S3" s="1" t="n">
         <v>233</v>
       </c>
       <c r="T3" s="1" t="n">
-        <v>610</v>
-      </c>
-      <c r="U3" s="1" t="e">
-        <v>#NUM!</v>
+        <v>608</v>
+      </c>
+      <c r="U3" s="1" t="n">
+        <v>4065</v>
       </c>
       <c r="V3" s="1" t="n">
-        <v>-0.456988999278939</v>
+        <v>-0.578805884787993</v>
       </c>
       <c r="W3" s="1"/>
       <c r="X3" s="1" t="n">
-        <v>-0.681882625182137</v>
+        <v>-0.55667575764324</v>
       </c>
       <c r="Y3" s="1" t="n">
-        <v>1.15659042930098</v>
+        <v>1.17478133537594</v>
       </c>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1" t="n">
-        <v>1.16263805197865</v>
+        <v>1.17708320889905</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>1.217</v>
+        <v>1.034</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>49.1</v>
+        <v>879.5</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.56</v>
+        <v>0.59</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>0.45</v>
+        <v>0.51</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>0.49</v>
+        <v>0.54</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="L4" s="1" t="n">
         <v>1572</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>234</v>
@@ -3132,31 +3200,31 @@
         <v>599</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>4012</v>
+        <v>4013</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>1619</v>
+        <v>1613</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>4026</v>
+        <v>4013</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1" t="n">
-        <v>-1.4055096171106</v>
+        <v>-1.38598043227533</v>
       </c>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1" t="n">
-        <v>0.130205419614125</v>
+        <v>0.150388579287712</v>
       </c>
       <c r="AA4" s="1"/>
     </row>
@@ -3232,7 +3300,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="17">
-      <formula>M2&lt;1612</formula>
+      <formula>M2&lt;1613</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N4">
@@ -3271,7 +3339,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="11">
-      <formula>P2&lt;4017</formula>
+      <formula>P2&lt;4018</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q4">
@@ -3284,7 +3352,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="9">
-      <formula>Q2&lt;1566</formula>
+      <formula>Q2&lt;1568</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R4">
@@ -3297,7 +3365,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="7">
-      <formula>R2&lt;1624</formula>
+      <formula>R2&lt;1618</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S4">
@@ -3323,7 +3391,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>T2&lt;612</formula>
+      <formula>T2&lt;605</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U4">
@@ -3336,7 +3404,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>U2&lt;4031</formula>
+      <formula>U2&lt;4018</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/3.results/model_selection/goeland_leucophee_HR_1_test_log_quad.xlsx
+++ b/3.results/model_selection/goeland_leucophee_HR_1_test_log_quad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schroll\Documents\stage_M2\3.results\model_selection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D64A1E7-CD43-4FB3-9464-EEC27D31AC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A209AB-C903-4357-A0F3-47642DAA0563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mean_winter_SST" sheetId="1" r:id="rId1"/>
@@ -23,17 +23,16 @@
     <sheet name="dist_to_shore" sheetId="8" r:id="rId8"/>
     <sheet name="bathymetry" sheetId="9" r:id="rId9"/>
     <sheet name="mean_CHL" sheetId="10" r:id="rId10"/>
-    <sheet name="sd_SAL" sheetId="11" r:id="rId11"/>
-    <sheet name="mean_SSH" sheetId="12" r:id="rId12"/>
-    <sheet name="sd_SSH" sheetId="13" r:id="rId13"/>
-    <sheet name="sd_VEL" sheetId="14" r:id="rId14"/>
+    <sheet name="mean_SSH" sheetId="11" r:id="rId11"/>
+    <sheet name="sd_SSH" sheetId="12" r:id="rId12"/>
+    <sheet name="sd_VEL" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="135">
   <si>
     <t>model</t>
   </si>
@@ -357,33 +356,6 @@
   </si>
   <si>
     <t>log_mean_CHL</t>
-  </si>
-  <si>
-    <t>beta_I(sd_SAL)</t>
-  </si>
-  <si>
-    <t>beta_log_sd_SAL</t>
-  </si>
-  <si>
-    <t>beta_sd_SAL</t>
-  </si>
-  <si>
-    <t>sd_beta_I(sd_SAL)</t>
-  </si>
-  <si>
-    <t>sd_beta_log_sd_SAL</t>
-  </si>
-  <si>
-    <t>sd_beta_sd_SAL</t>
-  </si>
-  <si>
-    <t>sd_SAL</t>
-  </si>
-  <si>
-    <t>sd_SAL + I(sd_SAL)^2</t>
-  </si>
-  <si>
-    <t>log_sd_SAL</t>
   </si>
   <si>
     <t>beta_I(mean_SSH)</t>
@@ -523,143 +495,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="196">
-    <dxf>
-      <font>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFB6C1"/>
-        <name val="Calibri"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFB6C1"/>
-        <name val="Calibri"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFB6C1"/>
-        <name val="Calibri"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFB6C1"/>
-        <name val="Calibri"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFB6C1"/>
-        <name val="Calibri"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFB6C1"/>
-        <name val="Calibri"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFB6C1"/>
-        <name val="Calibri"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFB6C1"/>
-        <name val="Calibri"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF006400"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF90EE90"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF006400"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF90EE90"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF006400"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF90EE90"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF006400"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF90EE90"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF006400"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF90EE90"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF006400"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF90EE90"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="182">
     <dxf>
       <font>
         <b/>
@@ -2804,31 +2640,31 @@
         <v>23</v>
       </c>
       <c r="B2" s="1">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C2" s="1">
-        <v>461.7</v>
+        <v>419.8</v>
       </c>
       <c r="D2" s="1">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="E2" s="1">
         <v>0.5</v>
       </c>
       <c r="F2" s="1">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="G2" s="1">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="H2" s="1">
         <v>0.1</v>
       </c>
       <c r="I2" s="1">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="J2" s="1">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="K2" s="1">
         <v>225</v>
@@ -2837,7 +2673,7 @@
         <v>567</v>
       </c>
       <c r="M2" s="1">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="N2" s="1">
         <v>1235</v>
@@ -2863,28 +2699,28 @@
         <v>24</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0109999999999999</v>
+        <v>1.006</v>
       </c>
       <c r="C3" s="1">
-        <v>505.1</v>
+        <v>320.60000000000002</v>
       </c>
       <c r="D3" s="1">
-        <v>0.52</v>
+        <v>0.65</v>
       </c>
       <c r="E3" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="F3" s="1">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="G3" s="1">
         <v>0.5</v>
       </c>
       <c r="H3" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.27</v>
       </c>
       <c r="I3" s="1">
-        <v>0.51</v>
+        <v>0.48</v>
       </c>
       <c r="J3" s="1">
         <v>1138</v>
@@ -2899,26 +2735,26 @@
         <v>1886</v>
       </c>
       <c r="N3" s="1">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="O3" s="1">
         <v>214</v>
       </c>
       <c r="P3" s="1">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="Q3" s="1">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1">
-        <v>-2.2094849190652801</v>
+        <v>-2.17</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1">
-        <v>0.294132385851056</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -2926,25 +2762,25 @@
         <v>25</v>
       </c>
       <c r="B4" s="1">
-        <v>1.006</v>
+        <v>1.008</v>
       </c>
       <c r="C4" s="1">
-        <v>546.29999999999995</v>
+        <v>534.4</v>
       </c>
       <c r="D4" s="1">
-        <v>0.52</v>
+        <v>0.65</v>
       </c>
       <c r="E4" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G4" s="1">
         <v>0.5</v>
       </c>
-      <c r="F4" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.49</v>
-      </c>
       <c r="H4" s="1">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I4" s="1">
         <v>0.5</v>
@@ -2962,30 +2798,30 @@
         <v>1886</v>
       </c>
       <c r="N4" s="1">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="O4" s="1">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P4" s="1">
         <v>538</v>
       </c>
       <c r="Q4" s="1">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="R4" s="1">
-        <v>-1.09563574132997</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1">
-        <v>-1.1310185313113501</v>
+        <v>-1.1200000000000001</v>
       </c>
       <c r="U4" s="1">
-        <v>1.1793624043797799</v>
+        <v>1.17</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1">
-        <v>1.1718082675877901</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -2993,31 +2829,31 @@
         <v>26</v>
       </c>
       <c r="B5" s="1">
-        <v>1.071</v>
+        <v>1.002</v>
       </c>
       <c r="C5" s="1">
-        <v>500.6</v>
+        <v>557.79999999999995</v>
       </c>
       <c r="D5" s="1">
-        <v>0.51</v>
+        <v>0.64</v>
       </c>
       <c r="E5" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="F5" s="1">
-        <v>0.36</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G5" s="1">
         <v>0.5</v>
       </c>
       <c r="H5" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I5" s="1">
         <v>0.5</v>
       </c>
       <c r="J5" s="1">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="K5" s="1">
         <v>212</v>
@@ -3026,64 +2862,64 @@
         <v>536</v>
       </c>
       <c r="M5" s="1">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="N5" s="1">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="O5" s="1">
         <v>214</v>
       </c>
       <c r="P5" s="1">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="Q5" s="1">
         <v>1892</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1">
-        <v>-2.2941466255503502</v>
+        <v>-2.27</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1">
-        <v>0.30672307866720799</v>
+        <v>0.31</v>
       </c>
       <c r="W5" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="cellIs" dxfId="195" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="181" priority="22" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="194" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="180" priority="21" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F5">
-    <cfRule type="cellIs" dxfId="193" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="179" priority="20" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="192" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="178" priority="19" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H5">
-    <cfRule type="cellIs" dxfId="191" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="177" priority="18" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="cellIs" dxfId="190" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="176" priority="17" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
@@ -3097,8 +2933,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="15">
-      <formula>J2&lt;1143</formula>
+    <cfRule type="expression" dxfId="175" priority="15">
+      <formula>J2&lt;1142</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K5">
@@ -3110,7 +2946,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="13">
+    <cfRule type="expression" dxfId="174" priority="13">
       <formula>K2&lt;217</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3123,7 +2959,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="11">
+    <cfRule type="expression" dxfId="173" priority="11">
       <formula>L2&lt;541</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3136,8 +2972,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="9">
-      <formula>M2&lt;1891</formula>
+    <cfRule type="expression" dxfId="172" priority="9">
+      <formula>M2&lt;1890</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N5">
@@ -3149,8 +2985,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="7">
-      <formula>N2&lt;1143</formula>
+    <cfRule type="expression" dxfId="171" priority="7">
+      <formula>N2&lt;1144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O5">
@@ -3162,7 +2998,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="5">
+    <cfRule type="expression" dxfId="170" priority="5">
       <formula>O2&lt;219</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3175,7 +3011,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="3">
+    <cfRule type="expression" dxfId="169" priority="3">
       <formula>P2&lt;543</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3188,8 +3024,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="1">
-      <formula>Q2&lt;1897</formula>
+    <cfRule type="expression" dxfId="168" priority="1">
+      <formula>Q2&lt;1896</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3283,31 +3119,31 @@
         <v>23</v>
       </c>
       <c r="B2" s="1">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C2" s="1">
-        <v>461.7</v>
+        <v>419.8</v>
       </c>
       <c r="D2" s="1">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="E2" s="1">
         <v>0.5</v>
       </c>
       <c r="F2" s="1">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="G2" s="1">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="H2" s="1">
         <v>0.1</v>
       </c>
       <c r="I2" s="1">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="J2" s="1">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="K2" s="1">
         <v>225</v>
@@ -3316,7 +3152,7 @@
         <v>567</v>
       </c>
       <c r="M2" s="1">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="N2" s="1">
         <v>1235</v>
@@ -3342,25 +3178,25 @@
         <v>105</v>
       </c>
       <c r="B3" s="1">
-        <v>1.05</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>231.2</v>
+        <v>192.6</v>
       </c>
       <c r="D3" s="1">
-        <v>0.5</v>
+        <v>0.61</v>
       </c>
       <c r="E3" s="1">
         <v>0.5</v>
       </c>
       <c r="F3" s="1">
-        <v>0.41</v>
+        <v>0.34</v>
       </c>
       <c r="G3" s="1">
         <v>0.5</v>
       </c>
       <c r="H3" s="1">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="I3" s="1">
         <v>0.5</v>
@@ -3378,26 +3214,26 @@
         <v>1906</v>
       </c>
       <c r="N3" s="1">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="O3" s="1">
         <v>222</v>
       </c>
       <c r="P3" s="1">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="Q3" s="1">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1">
-        <v>3.4626134404879401</v>
+        <v>3.52</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1">
-        <v>0.658209520362106</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -3405,25 +3241,25 @@
         <v>106</v>
       </c>
       <c r="B4" s="1">
-        <v>1.0169999999999999</v>
+        <v>1.006</v>
       </c>
       <c r="C4" s="1">
-        <v>131.69999999999999</v>
+        <v>164.6</v>
       </c>
       <c r="D4" s="1">
-        <v>0.48</v>
+        <v>0.63</v>
       </c>
       <c r="E4" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="G4" s="1">
         <v>0.49</v>
       </c>
-      <c r="F4" s="1">
-        <v>0.42</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.5</v>
-      </c>
       <c r="H4" s="1">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="I4" s="1">
         <v>0.51</v>
@@ -3444,27 +3280,27 @@
         <v>1138</v>
       </c>
       <c r="O4" s="1">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P4" s="1">
         <v>554</v>
       </c>
       <c r="Q4" s="1">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="R4" s="1">
-        <v>1.94932236113236</v>
+        <v>1.97</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1">
-        <v>1.95839432507891</v>
+        <v>1.94</v>
       </c>
       <c r="U4" s="1">
-        <v>1.2180508649811601</v>
+        <v>1.22</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1">
-        <v>1.20643146046441</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -3472,31 +3308,31 @@
         <v>107</v>
       </c>
       <c r="B5" s="1">
-        <v>1.0389999999999999</v>
+        <v>1.1160000000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>233.3</v>
+        <v>251.5</v>
       </c>
       <c r="D5" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="G5" s="1">
         <v>0.49</v>
       </c>
-      <c r="E5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.41</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.5</v>
-      </c>
       <c r="H5" s="1">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="I5" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="J5" s="1">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="K5" s="1">
         <v>217</v>
@@ -3505,64 +3341,64 @@
         <v>550</v>
       </c>
       <c r="M5" s="1">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="N5" s="1">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="O5" s="1">
         <v>219</v>
       </c>
       <c r="P5" s="1">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="Q5" s="1">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1">
-        <v>2.6169319225525198</v>
+        <v>2.63</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1">
-        <v>0.499716005330201</v>
+        <v>0.48</v>
       </c>
       <c r="W5" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="cellIs" dxfId="69" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="55" priority="22" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="68" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="54" priority="21" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F5">
-    <cfRule type="cellIs" dxfId="67" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="53" priority="20" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="66" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="52" priority="19" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H5">
-    <cfRule type="cellIs" dxfId="65" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="51" priority="18" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="cellIs" dxfId="64" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="50" priority="17" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
@@ -3576,7 +3412,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="15">
+    <cfRule type="expression" dxfId="49" priority="15">
       <formula>J2&lt;1144</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3589,7 +3425,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="13">
+    <cfRule type="expression" dxfId="48" priority="13">
       <formula>K2&lt;222</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3602,7 +3438,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="11">
+    <cfRule type="expression" dxfId="47" priority="11">
       <formula>L2&lt;553</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3615,7 +3451,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="9">
+    <cfRule type="expression" dxfId="46" priority="9">
       <formula>M2&lt;1911</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3628,7 +3464,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="7">
+    <cfRule type="expression" dxfId="45" priority="7">
       <formula>N2&lt;1143</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3641,7 +3477,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="5">
+    <cfRule type="expression" dxfId="44" priority="5">
       <formula>O2&lt;224</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3654,7 +3490,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="3">
+    <cfRule type="expression" dxfId="43" priority="3">
       <formula>P2&lt;559</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3667,8 +3503,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="1">
-      <formula>Q2&lt;1918</formula>
+    <cfRule type="expression" dxfId="42" priority="1">
+      <formula>Q2&lt;1917</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3762,31 +3598,31 @@
         <v>23</v>
       </c>
       <c r="B2" s="1">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C2" s="1">
-        <v>461.7</v>
+        <v>419.8</v>
       </c>
       <c r="D2" s="1">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="E2" s="1">
         <v>0.5</v>
       </c>
       <c r="F2" s="1">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="G2" s="1">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="H2" s="1">
         <v>0.1</v>
       </c>
       <c r="I2" s="1">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="J2" s="1">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="K2" s="1">
         <v>225</v>
@@ -3795,7 +3631,7 @@
         <v>567</v>
       </c>
       <c r="M2" s="1">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="N2" s="1">
         <v>1235</v>
@@ -3821,62 +3657,62 @@
         <v>114</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0269999999999999</v>
+        <v>1.0089999999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>516</v>
+        <v>821.3</v>
       </c>
       <c r="D3" s="1">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="E3" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="I3" s="1">
         <v>0.5</v>
       </c>
-      <c r="F3" s="1">
-        <v>0.34</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.51</v>
-      </c>
       <c r="J3" s="1">
-        <v>1223</v>
+        <v>1203</v>
       </c>
       <c r="K3" s="1">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L3" s="1">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="M3" s="1">
-        <v>2017</v>
+        <v>1976</v>
       </c>
       <c r="N3" s="1">
-        <v>1226</v>
+        <v>1203</v>
       </c>
       <c r="O3" s="1">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P3" s="1">
-        <v>584</v>
+        <v>549</v>
       </c>
       <c r="Q3" s="1">
-        <v>2043</v>
+        <v>1984</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1">
-        <v>0.54630941599145399</v>
+        <v>1.37</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1">
-        <v>0.22874464248395701</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -3884,66 +3720,66 @@
         <v>115</v>
       </c>
       <c r="B4" s="1">
-        <v>1.03</v>
+        <v>1.004</v>
       </c>
       <c r="C4" s="1">
-        <v>476.2</v>
+        <v>1002.8</v>
       </c>
       <c r="D4" s="1">
-        <v>0.46</v>
+        <v>0.61</v>
       </c>
       <c r="E4" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F4" s="1">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="G4" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="H4" s="1">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="I4" s="1">
         <v>0.5</v>
       </c>
       <c r="J4" s="1">
-        <v>1223</v>
+        <v>1203</v>
       </c>
       <c r="K4" s="1">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L4" s="1">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="M4" s="1">
-        <v>2017</v>
+        <v>1976</v>
       </c>
       <c r="N4" s="1">
-        <v>1226</v>
+        <v>1202</v>
       </c>
       <c r="O4" s="1">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P4" s="1">
-        <v>584</v>
+        <v>549</v>
       </c>
       <c r="Q4" s="1">
-        <v>2043</v>
+        <v>1983</v>
       </c>
       <c r="R4" s="1">
-        <v>0.30893537241722802</v>
+        <v>0.69</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1">
-        <v>0.27907998358713598</v>
+        <v>0.69</v>
       </c>
       <c r="U4" s="1">
-        <v>1.1836370146719899</v>
+        <v>1.18</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1">
-        <v>1.1892071932554</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -3951,97 +3787,97 @@
         <v>116</v>
       </c>
       <c r="B5" s="1">
-        <v>1.139</v>
+        <v>1.004</v>
       </c>
       <c r="C5" s="1">
-        <v>504.7</v>
+        <v>821.7</v>
       </c>
       <c r="D5" s="1">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="E5" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F5" s="1">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="G5" s="1">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="H5" s="1">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="I5" s="1">
         <v>0.5</v>
       </c>
       <c r="J5" s="1">
-        <v>1226</v>
+        <v>1203</v>
       </c>
       <c r="K5" s="1">
         <v>226</v>
       </c>
       <c r="L5" s="1">
-        <v>568</v>
+        <v>548</v>
       </c>
       <c r="M5" s="1">
-        <v>2020</v>
+        <v>1977</v>
       </c>
       <c r="N5" s="1">
-        <v>1229</v>
+        <v>1203</v>
       </c>
       <c r="O5" s="1">
         <v>232</v>
       </c>
       <c r="P5" s="1">
-        <v>585</v>
+        <v>550</v>
       </c>
       <c r="Q5" s="1">
-        <v>2046</v>
+        <v>1985</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1">
-        <v>0.40228072465204401</v>
+        <v>1.37</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1">
-        <v>0.18447212409673699</v>
+        <v>0.22</v>
       </c>
       <c r="W5" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="cellIs" dxfId="55" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="41" priority="22" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="54" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="40" priority="21" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F5">
-    <cfRule type="cellIs" dxfId="53" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="39" priority="20" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="52" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="38" priority="19" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H5">
-    <cfRule type="cellIs" dxfId="51" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="37" priority="18" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="cellIs" dxfId="50" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="36" priority="17" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
@@ -4055,8 +3891,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="15">
-      <formula>J2&lt;1228</formula>
+    <cfRule type="expression" dxfId="35" priority="15">
+      <formula>J2&lt;1208</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K5">
@@ -4068,7 +3904,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="13">
+    <cfRule type="expression" dxfId="34" priority="13">
       <formula>K2&lt;230</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4081,8 +3917,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="11">
-      <formula>L2&lt;572</formula>
+    <cfRule type="expression" dxfId="33" priority="11">
+      <formula>L2&lt;553</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M5">
@@ -4094,8 +3930,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="9">
-      <formula>M2&lt;2022</formula>
+    <cfRule type="expression" dxfId="32" priority="9">
+      <formula>M2&lt;1981</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N5">
@@ -4107,8 +3943,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="7">
-      <formula>N2&lt;1231</formula>
+    <cfRule type="expression" dxfId="31" priority="7">
+      <formula>N2&lt;1207</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O5">
@@ -4120,7 +3956,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="5">
+    <cfRule type="expression" dxfId="30" priority="5">
       <formula>O2&lt;236</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4133,8 +3969,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="3">
-      <formula>P2&lt;588</formula>
+    <cfRule type="expression" dxfId="29" priority="3">
+      <formula>P2&lt;554</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q5">
@@ -4146,8 +3982,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="1">
-      <formula>Q2&lt;2048</formula>
+    <cfRule type="expression" dxfId="28" priority="1">
+      <formula>Q2&lt;1988</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4241,31 +4077,31 @@
         <v>23</v>
       </c>
       <c r="B2" s="1">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C2" s="1">
-        <v>461.7</v>
+        <v>419.8</v>
       </c>
       <c r="D2" s="1">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="E2" s="1">
         <v>0.5</v>
       </c>
       <c r="F2" s="1">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="G2" s="1">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="H2" s="1">
         <v>0.1</v>
       </c>
       <c r="I2" s="1">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="J2" s="1">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="K2" s="1">
         <v>225</v>
@@ -4274,7 +4110,7 @@
         <v>567</v>
       </c>
       <c r="M2" s="1">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="N2" s="1">
         <v>1235</v>
@@ -4300,62 +4136,62 @@
         <v>123</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0209999999999999</v>
+        <v>1.008</v>
       </c>
       <c r="C3" s="1">
-        <v>781.3</v>
+        <v>615.6</v>
       </c>
       <c r="D3" s="1">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="E3" s="1">
         <v>0.5</v>
       </c>
       <c r="F3" s="1">
-        <v>0.35</v>
+        <v>0.19</v>
       </c>
       <c r="G3" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="H3" s="1">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="I3" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="J3" s="1">
-        <v>1203</v>
+        <v>1211</v>
       </c>
       <c r="K3" s="1">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="L3" s="1">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="M3" s="1">
-        <v>1976</v>
+        <v>1985</v>
       </c>
       <c r="N3" s="1">
-        <v>1203</v>
+        <v>1215</v>
       </c>
       <c r="O3" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P3" s="1">
         <v>550</v>
       </c>
       <c r="Q3" s="1">
-        <v>1986</v>
+        <v>2000</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1">
-        <v>1.37903552187656</v>
+        <v>1.36</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1">
-        <v>0.22146863545513601</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -4363,66 +4199,66 @@
         <v>124</v>
       </c>
       <c r="B4" s="1">
-        <v>1.0049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C4" s="1">
-        <v>750.3</v>
+        <v>593.5</v>
       </c>
       <c r="D4" s="1">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="E4" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="G4" s="1">
         <v>0.5</v>
       </c>
-      <c r="F4" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.49</v>
-      </c>
       <c r="H4" s="1">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="I4" s="1">
         <v>0.51</v>
       </c>
       <c r="J4" s="1">
-        <v>1204</v>
+        <v>1211</v>
       </c>
       <c r="K4" s="1">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="L4" s="1">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="M4" s="1">
-        <v>1977</v>
+        <v>1985</v>
       </c>
       <c r="N4" s="1">
-        <v>1203</v>
+        <v>1216</v>
       </c>
       <c r="O4" s="1">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="P4" s="1">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="Q4" s="1">
-        <v>1984</v>
+        <v>2001</v>
       </c>
       <c r="R4" s="1">
-        <v>0.71817122653863197</v>
+        <v>0.68</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1">
-        <v>0.67603622916470996</v>
+        <v>0.68</v>
       </c>
       <c r="U4" s="1">
-        <v>1.17065024266896</v>
+        <v>1.17</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1">
-        <v>1.1718064829055701</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -4430,97 +4266,97 @@
         <v>125</v>
       </c>
       <c r="B5" s="1">
-        <v>1.0049999999999999</v>
+        <v>1.006</v>
       </c>
       <c r="C5" s="1">
-        <v>996.8</v>
+        <v>746.3</v>
       </c>
       <c r="D5" s="1">
-        <v>0.48</v>
+        <v>0.62</v>
       </c>
       <c r="E5" s="1">
         <v>0.5</v>
       </c>
       <c r="F5" s="1">
-        <v>0.35</v>
+        <v>0.18</v>
       </c>
       <c r="G5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="I5" s="1">
         <v>0.51</v>
       </c>
-      <c r="H5" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.5</v>
-      </c>
       <c r="J5" s="1">
-        <v>1203</v>
+        <v>1212</v>
       </c>
       <c r="K5" s="1">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="L5" s="1">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M5" s="1">
-        <v>1976</v>
+        <v>1987</v>
       </c>
       <c r="N5" s="1">
-        <v>1203</v>
+        <v>1215</v>
       </c>
       <c r="O5" s="1">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="P5" s="1">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="Q5" s="1">
-        <v>1984</v>
+        <v>2001</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1">
-        <v>1.37336835579199</v>
+        <v>1.31</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1">
-        <v>0.21531251196500401</v>
+        <v>0.2</v>
       </c>
       <c r="W5" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="cellIs" dxfId="41" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="27" priority="22" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="40" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="26" priority="21" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F5">
-    <cfRule type="cellIs" dxfId="39" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="25" priority="20" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="38" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="24" priority="19" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H5">
-    <cfRule type="cellIs" dxfId="37" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="23" priority="18" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="cellIs" dxfId="36" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="17" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
@@ -4534,8 +4370,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="15">
-      <formula>J2&lt;1208</formula>
+    <cfRule type="expression" dxfId="21" priority="15">
+      <formula>J2&lt;1216</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K5">
@@ -4547,7 +4383,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="13">
+    <cfRule type="expression" dxfId="20" priority="13">
       <formula>K2&lt;230</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4560,8 +4396,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="11">
-      <formula>L2&lt;553</formula>
+    <cfRule type="expression" dxfId="19" priority="11">
+      <formula>L2&lt;549</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M5">
@@ -4573,8 +4409,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="9">
-      <formula>M2&lt;1981</formula>
+    <cfRule type="expression" dxfId="18" priority="9">
+      <formula>M2&lt;1990</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N5">
@@ -4586,8 +4422,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="7">
-      <formula>N2&lt;1208</formula>
+    <cfRule type="expression" dxfId="17" priority="7">
+      <formula>N2&lt;1220</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O5">
@@ -4599,7 +4435,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="5">
+    <cfRule type="expression" dxfId="16" priority="5">
       <formula>O2&lt;236</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4612,8 +4448,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="3">
-      <formula>P2&lt;554</formula>
+    <cfRule type="expression" dxfId="15" priority="3">
+      <formula>P2&lt;555</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q5">
@@ -4625,8 +4461,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="1">
-      <formula>Q2&lt;1989</formula>
+    <cfRule type="expression" dxfId="14" priority="1">
+      <formula>Q2&lt;2005</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4638,8 +4474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4720,31 +4556,31 @@
         <v>23</v>
       </c>
       <c r="B2" s="1">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C2" s="1">
-        <v>461.7</v>
+        <v>419.8</v>
       </c>
       <c r="D2" s="1">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="E2" s="1">
         <v>0.5</v>
       </c>
       <c r="F2" s="1">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="G2" s="1">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="H2" s="1">
         <v>0.1</v>
       </c>
       <c r="I2" s="1">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="J2" s="1">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="K2" s="1">
         <v>225</v>
@@ -4753,486 +4589,7 @@
         <v>567</v>
       </c>
       <c r="M2" s="1">
-        <v>2025</v>
-      </c>
-      <c r="N2" s="1">
-        <v>1235</v>
-      </c>
-      <c r="O2" s="1">
-        <v>231</v>
-      </c>
-      <c r="P2" s="1">
-        <v>583</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>2049</v>
-      </c>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1.026</v>
-      </c>
-      <c r="C3" s="1">
-        <v>798.8</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.49</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.23</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1211</v>
-      </c>
-      <c r="K3" s="1">
-        <v>230</v>
-      </c>
-      <c r="L3" s="1">
-        <v>544</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1985</v>
-      </c>
-      <c r="N3" s="1">
-        <v>1215</v>
-      </c>
-      <c r="O3" s="1">
-        <v>235</v>
-      </c>
-      <c r="P3" s="1">
-        <v>550</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>2000</v>
-      </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1">
-        <v>1.35003560860284</v>
-      </c>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1">
-        <v>0.20795918865489599</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1.008</v>
-      </c>
-      <c r="C4" s="1">
-        <v>637.29999999999995</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.49</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.23</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.51</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.51</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1212</v>
-      </c>
-      <c r="K4" s="1">
-        <v>230</v>
-      </c>
-      <c r="L4" s="1">
-        <v>544</v>
-      </c>
-      <c r="M4" s="1">
-        <v>1986</v>
-      </c>
-      <c r="N4" s="1">
-        <v>1215</v>
-      </c>
-      <c r="O4" s="1">
-        <v>235</v>
-      </c>
-      <c r="P4" s="1">
-        <v>550</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>2000</v>
-      </c>
-      <c r="R4" s="1">
-        <v>0.69441503259050796</v>
-      </c>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1">
-        <v>0.67500982158541101</v>
-      </c>
-      <c r="U4" s="1">
-        <v>1.1557574189178399</v>
-      </c>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1">
-        <v>1.15519825697764</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="C5" s="1">
-        <v>604.6</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.51</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1212</v>
-      </c>
-      <c r="K5" s="1">
-        <v>230</v>
-      </c>
-      <c r="L5" s="1">
-        <v>545</v>
-      </c>
-      <c r="M5" s="1">
-        <v>1987</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1215</v>
-      </c>
-      <c r="O5" s="1">
-        <v>235</v>
-      </c>
-      <c r="P5" s="1">
-        <v>550</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>2000</v>
-      </c>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1">
-        <v>1.3032206010711</v>
-      </c>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1">
-        <v>0.20081630950159601</v>
-      </c>
-      <c r="W5" s="1"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="D2:D5">
-    <cfRule type="cellIs" dxfId="27" priority="22" operator="between">
-      <formula>0.1</formula>
-      <formula>0.9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="26" priority="21" operator="between">
-      <formula>0.1</formula>
-      <formula>0.9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F5">
-    <cfRule type="cellIs" dxfId="25" priority="20" operator="between">
-      <formula>0.1</formula>
-      <formula>0.9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="24" priority="19" operator="between">
-      <formula>0.1</formula>
-      <formula>0.9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H5">
-    <cfRule type="cellIs" dxfId="23" priority="18" operator="between">
-      <formula>0.1</formula>
-      <formula>0.9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I5">
-    <cfRule type="cellIs" dxfId="22" priority="17" operator="between">
-      <formula>0.1</formula>
-      <formula>0.9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J5">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="15">
-      <formula>J2&lt;1216</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K5">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="13">
-      <formula>K2&lt;230</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L5">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="11">
-      <formula>L2&lt;549</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M5">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="9">
-      <formula>M2&lt;1990</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N5">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="7">
-      <formula>N2&lt;1220</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O5">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="5">
-      <formula>O2&lt;236</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P5">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="3">
-      <formula>P2&lt;555</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q5">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="1">
-      <formula>Q2&lt;2005</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:W5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1.01</v>
-      </c>
-      <c r="C2" s="1">
-        <v>461.7</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.44</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.32</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.52</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.49</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1233</v>
-      </c>
-      <c r="K2" s="1">
-        <v>225</v>
-      </c>
-      <c r="L2" s="1">
-        <v>567</v>
-      </c>
-      <c r="M2" s="1">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="N2" s="1">
         <v>1235</v>
@@ -5255,31 +4612,31 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0269999999999999</v>
+        <v>1.0069999999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>901.2</v>
+        <v>738.3</v>
       </c>
       <c r="D3" s="1">
-        <v>0.46</v>
+        <v>0.6</v>
       </c>
       <c r="E3" s="1">
         <v>0.51</v>
       </c>
       <c r="F3" s="1">
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
       <c r="G3" s="1">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="H3" s="1">
         <v>0.18</v>
       </c>
       <c r="I3" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J3" s="1">
         <v>1204</v>
@@ -5294,55 +4651,55 @@
         <v>1986</v>
       </c>
       <c r="N3" s="1">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="O3" s="1">
         <v>227</v>
       </c>
       <c r="P3" s="1">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="Q3" s="1">
-        <v>2028</v>
+        <v>2024</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1">
-        <v>-1.04630974382474</v>
+        <v>-1.04</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1">
-        <v>0.17077977489038099</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B4" s="1">
         <v>1.006</v>
       </c>
       <c r="C4" s="1">
-        <v>803.9</v>
+        <v>959.3</v>
       </c>
       <c r="D4" s="1">
-        <v>0.46</v>
+        <v>0.6</v>
       </c>
       <c r="E4" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F4" s="1">
-        <v>0.39</v>
+        <v>0.32</v>
       </c>
       <c r="G4" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="H4" s="1">
         <v>0.18</v>
       </c>
       <c r="I4" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="J4" s="1">
         <v>1204</v>
@@ -5357,7 +4714,7 @@
         <v>1986</v>
       </c>
       <c r="N4" s="1">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="O4" s="1">
         <v>227</v>
@@ -5366,44 +4723,44 @@
         <v>587</v>
       </c>
       <c r="Q4" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="R4" s="1">
-        <v>-0.52292318133604598</v>
+        <v>-0.54</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1">
-        <v>-0.52477784603515598</v>
+        <v>-0.5</v>
       </c>
       <c r="U4" s="1">
-        <v>1.16495922122962</v>
+        <v>1.17</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1">
-        <v>1.16343612532975</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B5" s="1">
-        <v>1.0089999999999999</v>
+        <v>1.006</v>
       </c>
       <c r="C5" s="1">
-        <v>673.7</v>
+        <v>595.70000000000005</v>
       </c>
       <c r="D5" s="1">
-        <v>0.46</v>
+        <v>0.59</v>
       </c>
       <c r="E5" s="1">
         <v>0.5</v>
       </c>
       <c r="F5" s="1">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="G5" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="H5" s="1">
         <v>0.18</v>
@@ -5415,13 +4772,13 @@
         <v>1189</v>
       </c>
       <c r="K5" s="1">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L5" s="1">
         <v>549</v>
       </c>
       <c r="M5" s="1">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="N5" s="1">
         <v>1191</v>
@@ -5437,12 +4794,12 @@
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1">
-        <v>-1.43026168012766</v>
+        <v>-1.44</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1">
-        <v>0.240621207183284</v>
+        <v>0.24</v>
       </c>
       <c r="W5" s="1"/>
     </row>
@@ -5532,7 +4889,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="9">
-      <formula>M2&lt;1968</formula>
+      <formula>M2&lt;1967</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N5">
@@ -5678,31 +5035,31 @@
         <v>23</v>
       </c>
       <c r="B2" s="1">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C2" s="1">
-        <v>461.7</v>
+        <v>419.8</v>
       </c>
       <c r="D2" s="1">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="E2" s="1">
         <v>0.5</v>
       </c>
       <c r="F2" s="1">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="G2" s="1">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="H2" s="1">
         <v>0.1</v>
       </c>
       <c r="I2" s="1">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="J2" s="1">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="K2" s="1">
         <v>225</v>
@@ -5711,7 +5068,7 @@
         <v>567</v>
       </c>
       <c r="M2" s="1">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="N2" s="1">
         <v>1235</v>
@@ -5737,28 +5094,28 @@
         <v>33</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0049999999999999</v>
+        <v>1.0169999999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>515</v>
+        <v>524.6</v>
       </c>
       <c r="D3" s="1">
-        <v>0.46</v>
+        <v>0.61</v>
       </c>
       <c r="E3" s="1">
         <v>0.49</v>
       </c>
       <c r="F3" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.24</v>
       </c>
       <c r="G3" s="1">
         <v>0.49</v>
       </c>
       <c r="H3" s="1">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="I3" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="J3" s="1">
         <v>1224</v>
@@ -5773,26 +5130,26 @@
         <v>2019</v>
       </c>
       <c r="N3" s="1">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="O3" s="1">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P3" s="1">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="Q3" s="1">
-        <v>2042</v>
+        <v>2044</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1">
-        <v>-0.65318235309138095</v>
+        <v>-0.65</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1">
-        <v>0.23653079366343699</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -5800,28 +5157,28 @@
         <v>34</v>
       </c>
       <c r="B4" s="1">
-        <v>1.002</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>432.7</v>
+        <v>413.2</v>
       </c>
       <c r="D4" s="1">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
       <c r="E4" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="F4" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.23</v>
       </c>
       <c r="G4" s="1">
         <v>0.5</v>
       </c>
       <c r="H4" s="1">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I4" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="J4" s="1">
         <v>1224</v>
@@ -5839,27 +5196,27 @@
         <v>1225</v>
       </c>
       <c r="O4" s="1">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P4" s="1">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="Q4" s="1">
         <v>2044</v>
       </c>
       <c r="R4" s="1">
-        <v>-0.31980056575233301</v>
+        <v>-0.33</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1">
-        <v>-0.358711084188999</v>
+        <v>-0.34</v>
       </c>
       <c r="U4" s="1">
-        <v>1.1689656873373699</v>
+        <v>1.2</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1">
-        <v>1.1690822071978899</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -5867,28 +5224,28 @@
         <v>35</v>
       </c>
       <c r="B5" s="1">
-        <v>1.105</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>444.2</v>
+        <v>498.5</v>
       </c>
       <c r="D5" s="1">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="E5" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F5" s="1">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
       <c r="G5" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="I5" s="1">
         <v>0.5</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.51</v>
       </c>
       <c r="J5" s="1">
         <v>1224</v>
@@ -5903,61 +5260,61 @@
         <v>2019</v>
       </c>
       <c r="N5" s="1">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="O5" s="1">
         <v>232</v>
       </c>
       <c r="P5" s="1">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="Q5" s="1">
-        <v>2045</v>
+        <v>2042</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1">
-        <v>-0.66814863642893696</v>
+        <v>-0.65</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1">
-        <v>0.230602752714126</v>
+        <v>0.23</v>
       </c>
       <c r="W5" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="cellIs" dxfId="181" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="167" priority="22" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="180" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="166" priority="21" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F5">
-    <cfRule type="cellIs" dxfId="179" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="165" priority="20" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="178" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="164" priority="19" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H5">
-    <cfRule type="cellIs" dxfId="177" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="163" priority="18" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="cellIs" dxfId="176" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="162" priority="17" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
@@ -5971,7 +5328,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="15">
+    <cfRule type="expression" dxfId="161" priority="15">
       <formula>J2&lt;1229</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5984,7 +5341,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="13">
+    <cfRule type="expression" dxfId="160" priority="13">
       <formula>K2&lt;230</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5997,7 +5354,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="11">
+    <cfRule type="expression" dxfId="159" priority="11">
       <formula>L2&lt;572</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6010,7 +5367,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="9">
+    <cfRule type="expression" dxfId="158" priority="9">
       <formula>M2&lt;2024</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6023,7 +5380,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="7">
+    <cfRule type="expression" dxfId="157" priority="7">
       <formula>N2&lt;1229</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6036,7 +5393,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="5">
+    <cfRule type="expression" dxfId="156" priority="5">
       <formula>O2&lt;236</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6049,7 +5406,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="3">
+    <cfRule type="expression" dxfId="155" priority="3">
       <formula>P2&lt;588</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6062,7 +5419,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="1">
+    <cfRule type="expression" dxfId="154" priority="1">
       <formula>Q2&lt;2047</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6076,7 +5433,7 @@
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6157,31 +5514,31 @@
         <v>23</v>
       </c>
       <c r="B2" s="1">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C2" s="1">
-        <v>461.7</v>
+        <v>419.8</v>
       </c>
       <c r="D2" s="1">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="E2" s="1">
         <v>0.5</v>
       </c>
       <c r="F2" s="1">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="G2" s="1">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="H2" s="1">
         <v>0.1</v>
       </c>
       <c r="I2" s="1">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="J2" s="1">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="K2" s="1">
         <v>225</v>
@@ -6190,7 +5547,7 @@
         <v>567</v>
       </c>
       <c r="M2" s="1">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="N2" s="1">
         <v>1235</v>
@@ -6216,62 +5573,62 @@
         <v>42</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0189999999999999</v>
+        <v>1.004</v>
       </c>
       <c r="C3" s="1">
-        <v>602.20000000000005</v>
+        <v>599.70000000000005</v>
       </c>
       <c r="D3" s="1">
-        <v>0.46</v>
+        <v>0.61</v>
       </c>
       <c r="E3" s="1">
         <v>0.5</v>
       </c>
       <c r="F3" s="1">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="G3" s="1">
         <v>0.5</v>
       </c>
       <c r="H3" s="1">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="I3" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J3" s="1">
         <v>1187</v>
       </c>
       <c r="K3" s="1">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L3" s="1">
         <v>553</v>
       </c>
       <c r="M3" s="1">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="N3" s="1">
         <v>1188</v>
       </c>
       <c r="O3" s="1">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P3" s="1">
         <v>575</v>
       </c>
       <c r="Q3" s="1">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1">
-        <v>-1.1578399175115499</v>
+        <v>-1.1499999999999999</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1">
-        <v>0.221824910661092</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -6279,28 +5636,28 @@
         <v>43</v>
       </c>
       <c r="B4" s="1">
-        <v>1.004</v>
+        <v>1.0069999999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>638.1</v>
+        <v>617.5</v>
       </c>
       <c r="D4" s="1">
-        <v>0.47</v>
+        <v>0.62</v>
       </c>
       <c r="E4" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G4" s="1">
         <v>0.49</v>
       </c>
-      <c r="F4" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I4" s="1">
         <v>0.5</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.49</v>
       </c>
       <c r="J4" s="1">
         <v>1187</v>
@@ -6318,27 +5675,27 @@
         <v>1188</v>
       </c>
       <c r="O4" s="1">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P4" s="1">
         <v>576</v>
       </c>
       <c r="Q4" s="1">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="R4" s="1">
-        <v>-0.56807713549584504</v>
+        <v>-0.54</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1">
-        <v>-0.58299875188616201</v>
+        <v>-0.61</v>
       </c>
       <c r="U4" s="1">
-        <v>1.15775044499257</v>
+        <v>1.19</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1">
-        <v>1.15515749045967</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -6346,28 +5703,28 @@
         <v>44</v>
       </c>
       <c r="B5" s="1">
-        <v>1.006</v>
+        <v>1.0069999999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>580.20000000000005</v>
+        <v>619.1</v>
       </c>
       <c r="D5" s="1">
-        <v>0.46</v>
+        <v>0.61</v>
       </c>
       <c r="E5" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="F5" s="1">
-        <v>0.35</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G5" s="1">
         <v>0.5</v>
       </c>
       <c r="H5" s="1">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="I5" s="1">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="J5" s="1">
         <v>1187</v>
@@ -6388,55 +5745,55 @@
         <v>243</v>
       </c>
       <c r="P5" s="1">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="Q5" s="1">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1">
-        <v>-1.16140162918836</v>
+        <v>-1.1599999999999999</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1">
-        <v>0.217594147489057</v>
+        <v>0.23</v>
       </c>
       <c r="W5" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="cellIs" dxfId="167" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="153" priority="22" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="166" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="152" priority="21" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F5">
-    <cfRule type="cellIs" dxfId="165" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="151" priority="20" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="164" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="150" priority="19" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H5">
-    <cfRule type="cellIs" dxfId="163" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="149" priority="18" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="cellIs" dxfId="162" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="148" priority="17" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
@@ -6450,7 +5807,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="15">
+    <cfRule type="expression" dxfId="147" priority="15">
       <formula>J2&lt;1192</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6463,7 +5820,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="13">
+    <cfRule type="expression" dxfId="146" priority="13">
       <formula>K2&lt;230</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6476,7 +5833,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="11">
+    <cfRule type="expression" dxfId="145" priority="11">
       <formula>L2&lt;558</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6489,8 +5846,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="9">
-      <formula>M2&lt;1980</formula>
+    <cfRule type="expression" dxfId="144" priority="9">
+      <formula>M2&lt;1981</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N5">
@@ -6502,7 +5859,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="7">
+    <cfRule type="expression" dxfId="143" priority="7">
       <formula>N2&lt;1193</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6515,7 +5872,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="5">
+    <cfRule type="expression" dxfId="142" priority="5">
       <formula>O2&lt;236</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6528,7 +5885,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="3">
+    <cfRule type="expression" dxfId="141" priority="3">
       <formula>P2&lt;580</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6541,8 +5898,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="1">
-      <formula>Q2&lt;2010</formula>
+    <cfRule type="expression" dxfId="140" priority="1">
+      <formula>Q2&lt;2011</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6636,31 +5993,31 @@
         <v>23</v>
       </c>
       <c r="B2" s="1">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C2" s="1">
-        <v>461.7</v>
+        <v>419.8</v>
       </c>
       <c r="D2" s="1">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="E2" s="1">
         <v>0.5</v>
       </c>
       <c r="F2" s="1">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="G2" s="1">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="H2" s="1">
         <v>0.1</v>
       </c>
       <c r="I2" s="1">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="J2" s="1">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="K2" s="1">
         <v>225</v>
@@ -6669,7 +6026,7 @@
         <v>567</v>
       </c>
       <c r="M2" s="1">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="N2" s="1">
         <v>1235</v>
@@ -6695,31 +6052,31 @@
         <v>51</v>
       </c>
       <c r="B3" s="1">
-        <v>1.006</v>
+        <v>1.002</v>
       </c>
       <c r="C3" s="1">
-        <v>1104.8</v>
+        <v>1171.4000000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>0.53</v>
+        <v>0.66</v>
       </c>
       <c r="E3" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="F3" s="1">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
       <c r="G3" s="1">
         <v>0.5</v>
       </c>
       <c r="H3" s="1">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="I3" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J3" s="1">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="K3" s="1">
         <v>217</v>
@@ -6728,16 +6085,16 @@
         <v>548</v>
       </c>
       <c r="M3" s="1">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="N3" s="1">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="O3" s="1">
         <v>222</v>
       </c>
       <c r="P3" s="1">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="Q3" s="1">
         <v>1967</v>
@@ -6745,12 +6102,12 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1">
-        <v>-1.4615190455082701</v>
+        <v>-1.46</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1">
-        <v>0.202997267720465</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -6758,28 +6115,28 @@
         <v>52</v>
       </c>
       <c r="B4" s="1">
-        <v>1.0149999999999999</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>1113.8</v>
+        <v>1047.5</v>
       </c>
       <c r="D4" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="E4" s="1">
         <v>0.51</v>
       </c>
-      <c r="E4" s="1">
-        <v>0.49</v>
-      </c>
       <c r="F4" s="1">
-        <v>0.38</v>
+        <v>0.32</v>
       </c>
       <c r="G4" s="1">
         <v>0.5</v>
       </c>
       <c r="H4" s="1">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="I4" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J4" s="1">
         <v>1177</v>
@@ -6797,27 +6154,27 @@
         <v>1179</v>
       </c>
       <c r="O4" s="1">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P4" s="1">
         <v>567</v>
       </c>
       <c r="Q4" s="1">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="R4" s="1">
-        <v>-0.73853618344845495</v>
+        <v>-0.78</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1">
-        <v>-0.73288620383739</v>
+        <v>-0.7</v>
       </c>
       <c r="U4" s="1">
-        <v>1.16301908807334</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1">
-        <v>1.16324919202155</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -6825,22 +6182,22 @@
         <v>53</v>
       </c>
       <c r="B5" s="1">
-        <v>1.0049999999999999</v>
+        <v>1.004</v>
       </c>
       <c r="C5" s="1">
-        <v>1172.5999999999999</v>
+        <v>1068.8</v>
       </c>
       <c r="D5" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="G5" s="1">
         <v>0.51</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.37</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.5</v>
       </c>
       <c r="H5" s="1">
         <v>0.25</v>
@@ -6855,10 +6212,10 @@
         <v>217</v>
       </c>
       <c r="L5" s="1">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M5" s="1">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="N5" s="1">
         <v>1178</v>
@@ -6874,48 +6231,48 @@
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1">
-        <v>-1.5100339778026599</v>
+        <v>-1.5</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1">
-        <v>0.201712329727158</v>
+        <v>0.21</v>
       </c>
       <c r="W5" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="cellIs" dxfId="153" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="139" priority="22" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="152" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="138" priority="21" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F5">
-    <cfRule type="cellIs" dxfId="151" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="137" priority="20" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="150" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="136" priority="19" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H5">
-    <cfRule type="cellIs" dxfId="149" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="135" priority="18" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="cellIs" dxfId="148" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="134" priority="17" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
@@ -6929,7 +6286,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="15">
+    <cfRule type="expression" dxfId="133" priority="15">
       <formula>J2&lt;1181</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6942,7 +6299,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="13">
+    <cfRule type="expression" dxfId="132" priority="13">
       <formula>K2&lt;222</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6955,8 +6312,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="11">
-      <formula>L2&lt;552</formula>
+    <cfRule type="expression" dxfId="131" priority="11">
+      <formula>L2&lt;553</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M5">
@@ -6968,8 +6325,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="9">
-      <formula>M2&lt;1945</formula>
+    <cfRule type="expression" dxfId="130" priority="9">
+      <formula>M2&lt;1946</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N5">
@@ -6981,7 +6338,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="7">
+    <cfRule type="expression" dxfId="129" priority="7">
       <formula>N2&lt;1183</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6994,7 +6351,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="5">
+    <cfRule type="expression" dxfId="128" priority="5">
       <formula>O2&lt;226</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7007,8 +6364,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="3">
-      <formula>P2&lt;572</formula>
+    <cfRule type="expression" dxfId="127" priority="3">
+      <formula>P2&lt;571</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q5">
@@ -7020,7 +6377,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="1">
+    <cfRule type="expression" dxfId="126" priority="1">
       <formula>Q2&lt;1971</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7034,7 +6391,7 @@
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7115,31 +6472,31 @@
         <v>23</v>
       </c>
       <c r="B2" s="1">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C2" s="1">
-        <v>461.7</v>
+        <v>419.8</v>
       </c>
       <c r="D2" s="1">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="E2" s="1">
         <v>0.5</v>
       </c>
       <c r="F2" s="1">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="G2" s="1">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="H2" s="1">
         <v>0.1</v>
       </c>
       <c r="I2" s="1">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="J2" s="1">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="K2" s="1">
         <v>225</v>
@@ -7148,7 +6505,7 @@
         <v>567</v>
       </c>
       <c r="M2" s="1">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="N2" s="1">
         <v>1235</v>
@@ -7170,32 +6527,32 @@
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B3" s="1">
         <v>1.0069999999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>1111</v>
+        <v>966.5</v>
       </c>
       <c r="D3" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E3" s="1">
         <v>0.51</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G3" s="1">
         <v>0.49</v>
       </c>
-      <c r="F3" s="1">
-        <v>0.36</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="I3" s="1">
         <v>0.51</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.5</v>
       </c>
       <c r="J3" s="1">
         <v>1160</v>
@@ -7210,7 +6567,7 @@
         <v>1920</v>
       </c>
       <c r="N3" s="1">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="O3" s="1">
         <v>221</v>
@@ -7219,17 +6576,17 @@
         <v>558</v>
       </c>
       <c r="Q3" s="1">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1">
-        <v>-1.4791653876927</v>
+        <v>-1.48</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1">
-        <v>0.179342081224456</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -7237,31 +6594,31 @@
         <v>61</v>
       </c>
       <c r="B4" s="1">
-        <v>1.0069999999999999</v>
+        <v>1.0289999999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>929.1</v>
+        <v>953.4</v>
       </c>
       <c r="D4" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="I4" s="1">
         <v>0.51</v>
       </c>
-      <c r="E4" s="1">
-        <v>0.49</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.36</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.49</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.49</v>
-      </c>
       <c r="J4" s="1">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="K4" s="1">
         <v>218</v>
@@ -7270,7 +6627,7 @@
         <v>543</v>
       </c>
       <c r="M4" s="1">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="N4" s="1">
         <v>1162</v>
@@ -7285,44 +6642,44 @@
         <v>1941</v>
       </c>
       <c r="R4" s="1">
-        <v>-0.76383616328655002</v>
+        <v>-0.72</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1">
-        <v>-0.714419887162418</v>
+        <v>-0.76</v>
       </c>
       <c r="U4" s="1">
-        <v>1.15975572613883</v>
+        <v>1.18</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1">
-        <v>1.16053444771875</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B5" s="1">
-        <v>1.0089999999999999</v>
+        <v>1.0069999999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>1070.3</v>
+        <v>961.7</v>
       </c>
       <c r="D5" s="1">
-        <v>0.52</v>
+        <v>0.66</v>
       </c>
       <c r="E5" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="F5" s="1">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="G5" s="1">
         <v>0.5</v>
       </c>
       <c r="H5" s="1">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="I5" s="1">
         <v>0.51</v>
@@ -7346,55 +6703,55 @@
         <v>221</v>
       </c>
       <c r="P5" s="1">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="Q5" s="1">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1">
-        <v>-1.5085477579119799</v>
+        <v>-1.5</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1">
-        <v>0.17955703290320499</v>
+        <v>0.19</v>
       </c>
       <c r="W5" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="cellIs" dxfId="139" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="125" priority="22" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="138" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="124" priority="21" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F5">
-    <cfRule type="cellIs" dxfId="137" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="123" priority="20" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="136" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="122" priority="19" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H5">
-    <cfRule type="cellIs" dxfId="135" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="121" priority="18" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="cellIs" dxfId="134" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="120" priority="17" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
@@ -7408,7 +6765,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="15">
+    <cfRule type="expression" dxfId="119" priority="15">
       <formula>J2&lt;1165</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7421,7 +6778,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="13">
+    <cfRule type="expression" dxfId="118" priority="13">
       <formula>K2&lt;223</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7434,7 +6791,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="11">
+    <cfRule type="expression" dxfId="117" priority="11">
       <formula>L2&lt;547</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7447,7 +6804,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="9">
+    <cfRule type="expression" dxfId="116" priority="9">
       <formula>M2&lt;1925</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7460,7 +6817,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="7">
+    <cfRule type="expression" dxfId="115" priority="7">
       <formula>N2&lt;1166</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7473,7 +6830,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="5">
+    <cfRule type="expression" dxfId="114" priority="5">
       <formula>O2&lt;226</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7486,8 +6843,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="3">
-      <formula>P2&lt;562</formula>
+    <cfRule type="expression" dxfId="113" priority="3">
+      <formula>P2&lt;561</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q5">
@@ -7499,8 +6856,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="1">
-      <formula>Q2&lt;1944</formula>
+    <cfRule type="expression" dxfId="112" priority="1">
+      <formula>Q2&lt;1943</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7594,31 +6951,31 @@
         <v>23</v>
       </c>
       <c r="B2" s="1">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C2" s="1">
-        <v>461.7</v>
+        <v>419.8</v>
       </c>
       <c r="D2" s="1">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="E2" s="1">
         <v>0.5</v>
       </c>
       <c r="F2" s="1">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="G2" s="1">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="H2" s="1">
         <v>0.1</v>
       </c>
       <c r="I2" s="1">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="J2" s="1">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="K2" s="1">
         <v>225</v>
@@ -7627,7 +6984,7 @@
         <v>567</v>
       </c>
       <c r="M2" s="1">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="N2" s="1">
         <v>1235</v>
@@ -7653,28 +7010,28 @@
         <v>69</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0189999999999999</v>
+        <v>1.012</v>
       </c>
       <c r="C3" s="1">
-        <v>830.2</v>
+        <v>871.1</v>
       </c>
       <c r="D3" s="1">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="E3" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F3" s="1">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="G3" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="H3" s="1">
         <v>0.28999999999999998</v>
       </c>
       <c r="I3" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J3" s="1">
         <v>1187</v>
@@ -7703,12 +7060,12 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1">
-        <v>1.5153814906273599</v>
+        <v>1.54</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1">
-        <v>0.23170963049058699</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -7716,28 +7073,28 @@
         <v>70</v>
       </c>
       <c r="B4" s="1">
-        <v>1.008</v>
+        <v>1.024</v>
       </c>
       <c r="C4" s="1">
-        <v>641.9</v>
+        <v>761.4</v>
       </c>
       <c r="D4" s="1">
-        <v>0.5</v>
+        <v>0.64</v>
       </c>
       <c r="E4" s="1">
         <v>0.51</v>
       </c>
       <c r="F4" s="1">
-        <v>0.35</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G4" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="H4" s="1">
         <v>0.28999999999999998</v>
       </c>
       <c r="I4" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J4" s="1">
         <v>1187</v>
@@ -7752,7 +7109,7 @@
         <v>1942</v>
       </c>
       <c r="N4" s="1">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="O4" s="1">
         <v>214</v>
@@ -7761,21 +7118,21 @@
         <v>552</v>
       </c>
       <c r="Q4" s="1">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="R4" s="1">
-        <v>0.76772806117075498</v>
+        <v>0.77</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1">
-        <v>0.77290441498962803</v>
+        <v>0.77</v>
       </c>
       <c r="U4" s="1">
-        <v>1.17167413242108</v>
+        <v>1.18</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1">
-        <v>1.17645747040629</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -7783,22 +7140,22 @@
         <v>71</v>
       </c>
       <c r="B5" s="1">
-        <v>1.006</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>794.1</v>
+        <v>791</v>
       </c>
       <c r="D5" s="1">
-        <v>0.48</v>
+        <v>0.63</v>
       </c>
       <c r="E5" s="1">
         <v>0.51</v>
       </c>
       <c r="F5" s="1">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
       <c r="G5" s="1">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="H5" s="1">
         <v>0.28000000000000003</v>
@@ -7819,7 +7176,7 @@
         <v>1945</v>
       </c>
       <c r="N5" s="1">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="O5" s="1">
         <v>214</v>
@@ -7828,52 +7185,52 @@
         <v>553</v>
       </c>
       <c r="Q5" s="1">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1">
-        <v>1.4312831997341899</v>
+        <v>1.44</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1">
-        <v>0.21281925290385201</v>
+        <v>0.22</v>
       </c>
       <c r="W5" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="cellIs" dxfId="125" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="111" priority="22" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="124" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="110" priority="21" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F5">
-    <cfRule type="cellIs" dxfId="123" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="109" priority="20" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="122" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="108" priority="19" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H5">
-    <cfRule type="cellIs" dxfId="121" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="107" priority="18" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="cellIs" dxfId="120" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="106" priority="17" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
@@ -7887,7 +7244,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="15">
+    <cfRule type="expression" dxfId="105" priority="15">
       <formula>J2&lt;1192</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7900,7 +7257,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="13">
+    <cfRule type="expression" dxfId="104" priority="13">
       <formula>K2&lt;215</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7913,7 +7270,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="11">
+    <cfRule type="expression" dxfId="103" priority="11">
       <formula>L2&lt;550</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7926,7 +7283,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="9">
+    <cfRule type="expression" dxfId="102" priority="9">
       <formula>M2&lt;1947</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7939,7 +7296,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="7">
+    <cfRule type="expression" dxfId="101" priority="7">
       <formula>N2&lt;1197</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7952,7 +7309,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="5">
+    <cfRule type="expression" dxfId="100" priority="5">
       <formula>O2&lt;219</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7965,7 +7322,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="3">
+    <cfRule type="expression" dxfId="99" priority="3">
       <formula>P2&lt;557</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7978,7 +7335,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="1">
+    <cfRule type="expression" dxfId="98" priority="1">
       <formula>Q2&lt;1963</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7991,9 +7348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -8073,31 +7428,31 @@
         <v>23</v>
       </c>
       <c r="B2" s="1">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C2" s="1">
-        <v>461.7</v>
+        <v>419.8</v>
       </c>
       <c r="D2" s="1">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="E2" s="1">
         <v>0.5</v>
       </c>
       <c r="F2" s="1">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="G2" s="1">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="H2" s="1">
         <v>0.1</v>
       </c>
       <c r="I2" s="1">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="J2" s="1">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="K2" s="1">
         <v>225</v>
@@ -8106,7 +7461,7 @@
         <v>567</v>
       </c>
       <c r="M2" s="1">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="N2" s="1">
         <v>1235</v>
@@ -8128,64 +7483,64 @@
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B3" s="1">
-        <v>1.024</v>
+        <v>2.6110000000000002</v>
       </c>
       <c r="C3" s="1">
-        <v>373.6</v>
+        <v>23.5</v>
       </c>
       <c r="D3" s="1">
-        <v>0.45</v>
+        <v>0.59</v>
       </c>
       <c r="E3" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="F3" s="1">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="G3" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="I3" s="1">
         <v>0.5</v>
       </c>
-      <c r="H3" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.51</v>
-      </c>
       <c r="J3" s="1">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="K3" s="1">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L3" s="1">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M3" s="1">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="N3" s="1">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="O3" s="1">
         <v>242</v>
       </c>
       <c r="P3" s="1">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="Q3" s="1">
         <v>2047</v>
       </c>
       <c r="R3" s="1">
-        <v>0.94303601895103295</v>
+        <v>0.81</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1">
-        <v>0.25652771489192899</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
@@ -8195,31 +7550,31 @@
         <v>79</v>
       </c>
       <c r="B4" s="1">
-        <v>1.006</v>
+        <v>1.0089999999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>319.3</v>
+        <v>286</v>
       </c>
       <c r="D4" s="1">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="E4" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G4" s="1">
         <v>0.5</v>
       </c>
-      <c r="F4" s="1">
-        <v>0.32</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.51</v>
-      </c>
       <c r="H4" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="I4" s="1">
         <v>0.5</v>
       </c>
       <c r="J4" s="1">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="K4" s="1">
         <v>227</v>
@@ -8228,32 +7583,32 @@
         <v>568</v>
       </c>
       <c r="M4" s="1">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="N4" s="1">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="O4" s="1">
         <v>242</v>
       </c>
       <c r="P4" s="1">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="Q4" s="1">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="R4" s="1">
-        <v>0.459481006915688</v>
+        <v>0.49</v>
       </c>
       <c r="S4" s="1">
-        <v>0.45333346820453801</v>
+        <v>0.49</v>
       </c>
       <c r="T4" s="1"/>
       <c r="U4" s="1">
-        <v>1.2037675718329099</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="V4" s="1">
-        <v>1.20199321344254</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="W4" s="1"/>
     </row>
@@ -8262,43 +7617,43 @@
         <v>80</v>
       </c>
       <c r="B5" s="1">
-        <v>1.827</v>
+        <v>1.1579999999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>47.8</v>
+        <v>235.1</v>
       </c>
       <c r="D5" s="1">
-        <v>0.45</v>
+        <v>0.59</v>
       </c>
       <c r="E5" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F5" s="1">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
       <c r="G5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="I5" s="1">
         <v>0.49</v>
       </c>
-      <c r="H5" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.5</v>
-      </c>
       <c r="J5" s="1">
+        <v>1220</v>
+      </c>
+      <c r="K5" s="1">
+        <v>227</v>
+      </c>
+      <c r="L5" s="1">
+        <v>568</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2015</v>
+      </c>
+      <c r="N5" s="1">
         <v>1222</v>
-      </c>
-      <c r="K5" s="1">
-        <v>228</v>
-      </c>
-      <c r="L5" s="1">
-        <v>569</v>
-      </c>
-      <c r="M5" s="1">
-        <v>2019</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1223</v>
       </c>
       <c r="O5" s="1">
         <v>242</v>
@@ -8307,52 +7662,52 @@
         <v>583</v>
       </c>
       <c r="Q5" s="1">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1">
-        <v>0.84982155808785897</v>
+        <v>0.97</v>
       </c>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1">
-        <v>0.51092463089755602</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="cellIs" dxfId="111" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="97" priority="22" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="110" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="96" priority="21" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F5">
-    <cfRule type="cellIs" dxfId="109" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="95" priority="20" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="108" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="94" priority="19" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H5">
-    <cfRule type="cellIs" dxfId="107" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="93" priority="18" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="cellIs" dxfId="106" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="92" priority="17" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
@@ -8366,7 +7721,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="15">
+    <cfRule type="expression" dxfId="91" priority="15">
       <formula>J2&lt;1225</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8379,7 +7734,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="13">
+    <cfRule type="expression" dxfId="90" priority="13">
       <formula>K2&lt;230</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8392,7 +7747,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="11">
+    <cfRule type="expression" dxfId="89" priority="11">
       <formula>L2&lt;572</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8405,7 +7760,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="9">
+    <cfRule type="expression" dxfId="88" priority="9">
       <formula>M2&lt;2020</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8418,8 +7773,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="7">
-      <formula>N2&lt;1228</formula>
+    <cfRule type="expression" dxfId="87" priority="7">
+      <formula>N2&lt;1227</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O5">
@@ -8431,7 +7786,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="5">
+    <cfRule type="expression" dxfId="86" priority="5">
       <formula>O2&lt;236</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8444,8 +7799,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="3">
-      <formula>P2&lt;587</formula>
+    <cfRule type="expression" dxfId="85" priority="3">
+      <formula>P2&lt;588</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q5">
@@ -8457,7 +7812,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="1">
+    <cfRule type="expression" dxfId="84" priority="1">
       <formula>Q2&lt;2052</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8552,31 +7907,31 @@
         <v>23</v>
       </c>
       <c r="B2" s="1">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C2" s="1">
-        <v>461.7</v>
+        <v>419.8</v>
       </c>
       <c r="D2" s="1">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="E2" s="1">
         <v>0.5</v>
       </c>
       <c r="F2" s="1">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="G2" s="1">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="H2" s="1">
         <v>0.1</v>
       </c>
       <c r="I2" s="1">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="J2" s="1">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="K2" s="1">
         <v>225</v>
@@ -8585,7 +7940,7 @@
         <v>567</v>
       </c>
       <c r="M2" s="1">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="N2" s="1">
         <v>1235</v>
@@ -8611,31 +7966,31 @@
         <v>87</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0029999999999999</v>
+        <v>1.0069999999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>1112.5999999999999</v>
+        <v>987.7</v>
       </c>
       <c r="D3" s="1">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
       <c r="E3" s="1">
         <v>0.5</v>
       </c>
       <c r="F3" s="1">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="G3" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="H3" s="1">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I3" s="1">
         <v>0.5</v>
       </c>
       <c r="J3" s="1">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="K3" s="1">
         <v>218</v>
@@ -8644,7 +7999,7 @@
         <v>543</v>
       </c>
       <c r="M3" s="1">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="N3" s="1">
         <v>1131</v>
@@ -8653,18 +8008,18 @@
         <v>224</v>
       </c>
       <c r="P3" s="1">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Q3" s="1">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="R3" s="1">
-        <v>-1.5689376733118801</v>
+        <v>-1.58</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1">
-        <v>0.163502749611836</v>
+        <v>0.16</v>
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
@@ -8674,28 +8029,28 @@
         <v>88</v>
       </c>
       <c r="B4" s="1">
-        <v>1.0029999999999999</v>
+        <v>1.0069999999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>986.7</v>
+        <v>1059.2</v>
       </c>
       <c r="D4" s="1">
-        <v>0.53</v>
+        <v>0.63</v>
       </c>
       <c r="E4" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="F4" s="1">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="G4" s="1">
         <v>0.5</v>
       </c>
       <c r="H4" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.26</v>
       </c>
       <c r="I4" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="J4" s="1">
         <v>1132</v>
@@ -8704,13 +8059,13 @@
         <v>218</v>
       </c>
       <c r="L4" s="1">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M4" s="1">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="N4" s="1">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="O4" s="1">
         <v>223</v>
@@ -8719,20 +8074,20 @@
         <v>524</v>
       </c>
       <c r="Q4" s="1">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="R4" s="1">
-        <v>-0.79748090149112805</v>
+        <v>-0.8</v>
       </c>
       <c r="S4" s="1">
-        <v>-0.78207331682719905</v>
+        <v>-0.78</v>
       </c>
       <c r="T4" s="1"/>
       <c r="U4" s="1">
-        <v>1.1570325486151301</v>
+        <v>1.17</v>
       </c>
       <c r="V4" s="1">
-        <v>1.1588499116675099</v>
+        <v>1.17</v>
       </c>
       <c r="W4" s="1"/>
     </row>
@@ -8741,31 +8096,31 @@
         <v>89</v>
       </c>
       <c r="B5" s="1">
-        <v>1.008</v>
+        <v>1.006</v>
       </c>
       <c r="C5" s="1">
-        <v>639.79999999999995</v>
+        <v>660.1</v>
       </c>
       <c r="D5" s="1">
-        <v>0.53</v>
+        <v>0.66</v>
       </c>
       <c r="E5" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="G5" s="1">
         <v>0.5</v>
       </c>
-      <c r="F5" s="1">
-        <v>0.37</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.49</v>
-      </c>
       <c r="H5" s="1">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="I5" s="1">
         <v>0.51</v>
       </c>
       <c r="J5" s="1">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="K5" s="1">
         <v>216</v>
@@ -8774,7 +8129,7 @@
         <v>535</v>
       </c>
       <c r="M5" s="1">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="N5" s="1">
         <v>1109</v>
@@ -8783,55 +8138,55 @@
         <v>221</v>
       </c>
       <c r="P5" s="1">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="Q5" s="1">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1">
-        <v>-2.5021209453147399</v>
+        <v>-2.5</v>
       </c>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1">
-        <v>0.29822810295997099</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="cellIs" dxfId="97" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="83" priority="22" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="96" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="82" priority="21" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F5">
-    <cfRule type="cellIs" dxfId="95" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="81" priority="20" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="94" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="80" priority="19" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H5">
-    <cfRule type="cellIs" dxfId="93" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="79" priority="18" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="cellIs" dxfId="92" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="78" priority="17" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
@@ -8845,8 +8200,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="15">
-      <formula>J2&lt;1117</formula>
+    <cfRule type="expression" dxfId="77" priority="15">
+      <formula>J2&lt;1118</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K5">
@@ -8858,7 +8213,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="13">
+    <cfRule type="expression" dxfId="76" priority="13">
       <formula>K2&lt;221</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8871,7 +8226,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="11">
+    <cfRule type="expression" dxfId="75" priority="11">
       <formula>L2&lt;540</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8884,8 +8239,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="9">
-      <formula>M2&lt;1868</formula>
+    <cfRule type="expression" dxfId="74" priority="9">
+      <formula>M2&lt;1869</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N5">
@@ -8897,7 +8252,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="7">
+    <cfRule type="expression" dxfId="73" priority="7">
       <formula>N2&lt;1114</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8910,7 +8265,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="5">
+    <cfRule type="expression" dxfId="72" priority="5">
       <formula>O2&lt;226</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8923,8 +8278,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="3">
-      <formula>P2&lt;519</formula>
+    <cfRule type="expression" dxfId="71" priority="3">
+      <formula>P2&lt;520</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q5">
@@ -8936,8 +8291,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="1">
-      <formula>Q2&lt;1849</formula>
+    <cfRule type="expression" dxfId="70" priority="1">
+      <formula>Q2&lt;1850</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9031,31 +8386,31 @@
         <v>23</v>
       </c>
       <c r="B2" s="1">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C2" s="1">
-        <v>461.7</v>
+        <v>419.8</v>
       </c>
       <c r="D2" s="1">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="E2" s="1">
         <v>0.5</v>
       </c>
       <c r="F2" s="1">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="G2" s="1">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="H2" s="1">
         <v>0.1</v>
       </c>
       <c r="I2" s="1">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="J2" s="1">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="K2" s="1">
         <v>225</v>
@@ -9064,7 +8419,7 @@
         <v>567</v>
       </c>
       <c r="M2" s="1">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="N2" s="1">
         <v>1235</v>
@@ -9090,31 +8445,31 @@
         <v>96</v>
       </c>
       <c r="B3" s="1">
-        <v>1.012</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>812.5</v>
+        <v>764.1</v>
       </c>
       <c r="D3" s="1">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="E3" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F3" s="1">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
       <c r="G3" s="1">
         <v>0.5</v>
       </c>
       <c r="H3" s="1">
-        <v>0.17</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="J3" s="1">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="K3" s="1">
         <v>215</v>
@@ -9123,13 +8478,13 @@
         <v>551</v>
       </c>
       <c r="M3" s="1">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="N3" s="1">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="O3" s="1">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P3" s="1">
         <v>551</v>
@@ -9138,12 +8493,12 @@
         <v>1957</v>
       </c>
       <c r="R3" s="1">
-        <v>1.29371748678314</v>
+        <v>1.3</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1">
-        <v>0.157638509497526</v>
+        <v>0.16</v>
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
@@ -9153,25 +8508,25 @@
         <v>97</v>
       </c>
       <c r="B4" s="1">
-        <v>1.002</v>
+        <v>1.004</v>
       </c>
       <c r="C4" s="1">
-        <v>809.3</v>
+        <v>819.3</v>
       </c>
       <c r="D4" s="1">
-        <v>0.48</v>
+        <v>0.6</v>
       </c>
       <c r="E4" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="F4" s="1">
-        <v>0.37</v>
+        <v>0.32</v>
       </c>
       <c r="G4" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H4" s="1">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I4" s="1">
         <v>0.5</v>
@@ -9201,17 +8556,17 @@
         <v>1957</v>
       </c>
       <c r="R4" s="1">
-        <v>0.613389537406268</v>
+        <v>0.64</v>
       </c>
       <c r="S4" s="1">
-        <v>0.68385678116924797</v>
+        <v>0.65</v>
       </c>
       <c r="T4" s="1"/>
       <c r="U4" s="1">
-        <v>1.1813653216303699</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="V4" s="1">
-        <v>1.1819525524429499</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="W4" s="1"/>
     </row>
@@ -9220,19 +8575,19 @@
         <v>98</v>
       </c>
       <c r="B5" s="1">
-        <v>1.0209999999999999</v>
+        <v>1.0149999999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>876.9</v>
+        <v>858.3</v>
       </c>
       <c r="D5" s="1">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
       <c r="E5" s="1">
         <v>0.5</v>
       </c>
       <c r="F5" s="1">
-        <v>0.4</v>
+        <v>0.32</v>
       </c>
       <c r="G5" s="1">
         <v>0.5</v>
@@ -9241,10 +8596,10 @@
         <v>0.22</v>
       </c>
       <c r="I5" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="J5" s="1">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="K5" s="1">
         <v>212</v>
@@ -9253,16 +8608,16 @@
         <v>545</v>
       </c>
       <c r="M5" s="1">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="N5" s="1">
         <v>1139</v>
       </c>
       <c r="O5" s="1">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P5" s="1">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="Q5" s="1">
         <v>1894</v>
@@ -9270,47 +8625,47 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1">
-        <v>-1.65448951705778</v>
+        <v>-1.65</v>
       </c>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1">
-        <v>0.16727499009288199</v>
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="cellIs" dxfId="83" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="69" priority="22" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="82" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="68" priority="21" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F5">
-    <cfRule type="cellIs" dxfId="81" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="67" priority="20" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="80" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="66" priority="19" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H5">
-    <cfRule type="cellIs" dxfId="79" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="65" priority="18" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="cellIs" dxfId="78" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="64" priority="17" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
@@ -9324,8 +8679,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="15">
-      <formula>J2&lt;1148</formula>
+    <cfRule type="expression" dxfId="63" priority="15">
+      <formula>J2&lt;1147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K5">
@@ -9337,7 +8692,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="13">
+    <cfRule type="expression" dxfId="62" priority="13">
       <formula>K2&lt;217</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9350,7 +8705,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="11">
+    <cfRule type="expression" dxfId="61" priority="11">
       <formula>L2&lt;550</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9363,8 +8718,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="9">
-      <formula>M2&lt;1905</formula>
+    <cfRule type="expression" dxfId="60" priority="9">
+      <formula>M2&lt;1904</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N5">
@@ -9376,7 +8731,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="7">
+    <cfRule type="expression" dxfId="59" priority="7">
       <formula>N2&lt;1144</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9389,8 +8744,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="5">
-      <formula>O2&lt;222</formula>
+    <cfRule type="expression" dxfId="58" priority="5">
+      <formula>O2&lt;221</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P5">
@@ -9402,8 +8757,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="3">
-      <formula>P2&lt;543</formula>
+    <cfRule type="expression" dxfId="57" priority="3">
+      <formula>P2&lt;544</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q5">
@@ -9415,7 +8770,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="1">
+    <cfRule type="expression" dxfId="56" priority="1">
       <formula>Q2&lt;1899</formula>
     </cfRule>
   </conditionalFormatting>
